--- a/result_all.xlsx
+++ b/result_all.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27100" windowHeight="12520" tabRatio="765" activeTab="2"/>
+    <workbookView windowWidth="27900" windowHeight="12520" tabRatio="765" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="mnist_linear_nag" sheetId="4" r:id="rId1"/>
@@ -13,13 +13,16 @@
     <sheet name="mnist_linear_avg" sheetId="5" r:id="rId4"/>
     <sheet name="mnist_log_avg" sheetId="6" r:id="rId5"/>
     <sheet name="mnist_cnn_avg" sheetId="7" r:id="rId6"/>
+    <sheet name="mnist_linear_mon" sheetId="9" r:id="rId7"/>
+    <sheet name="mnist_log_mon" sheetId="10" r:id="rId8"/>
+    <sheet name="mnist_cnn_mon" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="5">
   <si>
     <t>rouud_num</t>
   </si>
@@ -41,10 +44,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -55,16 +58,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,14 +81,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,15 +158,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,17 +173,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,59 +197,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +247,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,49 +271,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,13 +313,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +331,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,55 +385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +430,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -443,8 +470,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -465,21 +494,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -488,140 +502,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,27 +633,30 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1004,852 +1010,852 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.0981052312999963</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.0853347023296508</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>69.88</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>40</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.0745150633156299</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.0631869154133994</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>76.4</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.0615597702562809</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.0560464266758815</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>80.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>80</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.0561311151832342</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.0531231919481496</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>80.65</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.0545714804902672</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.0509688288068315</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>81.86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>120</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.0551844630390405</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.0488590674273147</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>82.35</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>140</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.0510535975918173</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.0485176602319167</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>81.69</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>160</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.0524478973820805</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.047165899946811</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>82.74</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.0551134953275322</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.0460476626161557</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>83.52</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>200</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.051894137635827</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.0458461881205914</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>83.84</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>220</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.0482806824147701</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.0455256940405459</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>83.71</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>240</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.0428163548931479</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.0449932604719688</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>83.69</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>260</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.0445966748520731</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.0445227818148341</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>84.79</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>280</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.0452386094257235</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.0437436333626129</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>84.46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>300</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.0478004897013306</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.0437503027000055</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>84.22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>320</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.0460501825436949</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.0432593475695058</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>84.18</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>340</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>0.0423410655930638</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.042647150113799</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>85.2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>360</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>0.0443982984870672</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.0430582696987185</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>83.27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>380</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>0.0437205331400036</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.0425894316167208</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>84.83</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>400</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.0453035840764641</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.0423897321507999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>84.89</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>420</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>0.0439851591363549</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.0427586064098557</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>84.56</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>440</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>0.0474512223154306</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.0423564596493153</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>85.44</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>460</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>0.0600362531840801</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.043365175984088</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>83.59</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>480</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>0.0504537709057331</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.0424981014269172</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>85.49</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>500</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>0.0428855437785387</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>0.042119345657385</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>85.51</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>520</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>0.0395311871543526</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>0.0414948771784829</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>85.37</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>540</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>0.0466092303395271</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>0.0414736837291034</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>85.27</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>560</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>0.046927735209465</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>0.0411972475303396</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>85.36</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>580</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>0.0435007428750395</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>0.0413732541618263</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>84.93</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>600</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>0.0423307679593563</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>0.0415432279941382</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>84.13</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>620</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>0.0442071314901113</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>0.0409361741440311</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>85.2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>640</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>0.0386056685820221</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>0.0408897841954307</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>84.67</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>660</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>0.043601949699223</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>0.0410863447364918</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>85.13</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>680</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>0.0420218054205179</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>0.0407219540422699</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>85.84</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>700</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>0.0504056913778185</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>0.0417820741392814</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>84.62</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>720</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>0.0449600433930754</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>0.0411337806849153</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>85.87</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>740</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>0.0447076447308063</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>0.0402877594634985</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>85.96</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>760</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>0.0422404082491993</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>0.0408261454171815</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>85.07</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>780</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>0.0436217384412884</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>0.0405722110277148</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>84.89</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>800</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>0.0415752762928605</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>0.0406420421519666</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>85.46</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>820</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>0.0447159530594944</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>0.0413041698396395</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>84.89</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>840</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>0.0424425154924392</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>0.0406214878864728</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>85.17</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>860</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>0.0454063946381211</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>0.0411987582067395</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>84.42</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>880</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>0.0407549906522035</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>0.0406943454294447</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>84.93</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>900</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>0.0489032063633203</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>0.0405242424220985</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>85.19</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>920</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>0.0404066266492009</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>0.0406496658399226</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>85.33</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>940</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>0.0398943265900015</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>0.0416154133594909</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>84.81</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>960</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>0.0451983585953712</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>0.0406029973013006</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>85.67</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>980</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>0.0470086950808763</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>0.0403036359507756</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>86.24</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>1000</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>0.0413274113088846</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>0.0402408884422984</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>85.54</v>
       </c>
     </row>
@@ -1888,852 +1894,852 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>1.89835682511329</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>1.88137521713402</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>75.77</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>40</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1.80533692240715</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>1.75420543190779</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>83.08</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>1.71139678359031</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>1.7122263786899</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>84.61</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>80</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>1.71534040570259</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>1.69080402289226</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>85.45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1.67926201224327</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>1.67645437094815</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>86.53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>120</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>1.68083718419075</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>1.66551243044008</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>87.24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>140</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1.65950912237167</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>1.6572977676513</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>87.45</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>160</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1.65853691101074</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>1.65076166201548</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>87.54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>1.68054920434951</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>1.64496854308304</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>87.66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>200</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>1.65781795978546</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>1.64057868453347</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>87.7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>220</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>1.6203501522541</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>1.63622197603723</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>240</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>1.61455219984054</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>1.63189142600745</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>88.19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>260</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>1.63186877965927</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>1.62899180354586</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>88.34</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>280</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>1.61514848470687</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>1.62546559503883</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>88.45</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>300</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>1.63346123695373</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>1.62254852094468</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>88.44</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>320</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>1.63269039988517</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>1.62035111105366</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>88.62</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>340</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>1.59289643168449</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>1.61792251410757</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>88.69</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>360</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>1.62121114134788</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>1.61594908860079</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>88.78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>380</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>1.62319949269294</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>1.61425920580602</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>88.93</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>400</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>1.5909514427185</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>1.61279984872052</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>88.85</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>420</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>1.61011216044425</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>1.61136102524532</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>88.77</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>440</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>1.62427446246147</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>1.61013840338227</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>88.86</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>460</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>1.66967236995697</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>1.60853543554901</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>88.95</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>480</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>1.64095878601074</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>1.60691074732762</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>89.09</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>500</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>1.60137999057769</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>1.60599540980758</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>89.08</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>520</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>1.5767556130886</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>1.60427637236892</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>89.14</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>540</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="2">
         <v>1.61759179830551</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="2">
         <v>1.60311910377186</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="2">
         <v>89.22</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>560</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>1.62171870470047</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>1.60212409875954</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>89.33</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>580</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>1.61041063070297</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>1.60091890802808</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>89.47</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>600</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>1.59933757781982</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>1.60024679770135</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="2">
         <v>89.49</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>620</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>1.60811299085617</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>1.59934642967904</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>89.59</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>640</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="2">
         <v>1.57398748397827</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>1.59867010450666</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>89.38</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>660</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>1.59945484995841</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>1.59818489916005</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="2">
         <v>89.28</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>680</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>1.58527013659477</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="2">
         <v>1.59754140513717</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="2">
         <v>89.42</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>700</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="2">
         <v>1.63017380237579</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="2">
         <v>1.59643418621865</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>89.5</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>720</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>1.61447873711586</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>1.59581449229246</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="2">
         <v>89.46</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>740</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="2">
         <v>1.6168315410614</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="2">
         <v>1.59510996615051</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="2">
         <v>89.56</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>760</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>1.60299462080001</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>1.59401007974223</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>89.53</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>780</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="2">
         <v>1.58410736918449</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="2">
         <v>1.59337942691365</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>89.52</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>800</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="2">
         <v>1.58708369731903</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="2">
         <v>1.59280797934076</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>89.69</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>820</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="2">
         <v>1.60462090373039</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="2">
         <v>1.59204734055099</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>89.65</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>840</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="2">
         <v>1.6035897731781</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="2">
         <v>1.59170707775529</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>89.69</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>860</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C44" s="2">
         <v>1.6218321621418</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="2">
         <v>1.59117118568177</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>89.67</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>880</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>1.56939524412155</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>1.59077863632493</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>89.6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>900</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="2">
         <v>1.62721082568168</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="2">
         <v>1.59067976854409</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>89.6</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>920</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>1.58430144190788</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>1.59017980933948</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>89.76</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>940</v>
       </c>
-      <c r="C48" s="1">
+      <c r="C48" s="2">
         <v>1.56211215257644</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="2">
         <v>1.58937127499064</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>89.76</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>960</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>1.59582155942916</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="2">
         <v>1.58908274902659</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="2">
         <v>89.83</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>980</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>1.6132355928421</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="2">
         <v>1.58842380790953</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="2">
         <v>89.74</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>1000</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>1.57818609476089</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>1.58766032176412</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>89.74</v>
       </c>
     </row>
@@ -2748,7 +2754,7 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2775,436 +2781,436 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>40</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>0.901058509945869</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>0.512848398298214</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>86.63</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>80</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>0.362280540168285</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.266483859829367</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>92.1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>120</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>0.319487705826759</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.213507091620592</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>93.74</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>160</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>0.286382135003805</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.171717170127637</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>200</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.171846147626638</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.143518078725215</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>95.59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>240</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>0.114960068836808</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.118626287218871</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>96.4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>280</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>0.0991257466375827</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.0973239041639456</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>96.99</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>320</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>0.105382110457867</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.0867493667737669</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>97.34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>360</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>0.126420024316757</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.0821109138997153</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>97.34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>400</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>0.110649101436138</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.0756109710252594</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>97.68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>440</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>0.0805962523445487</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.0706290178554085</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>97.83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>480</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.110963338986039</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.0612616818235107</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>97.99</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>520</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>0.0262046046555042</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.0585892066375462</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>98.15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>560</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>0.101749310269951</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.05774816380985</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>98.16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>600</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.0361952611710876</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.0537779439321517</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>98.25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>640</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>0.0706495842896401</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>0.0516466374299933</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>98.28</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>680</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>0.0680441698059439</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>0.0477992425426903</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>98.52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>720</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>0.079502965323627</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>0.0469132608183137</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="2">
         <v>98.49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>760</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>0.0647929683327674</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>0.0462057303349379</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>98.5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>800</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>0.0757105876691639</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>0.0461241095050632</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="2">
         <v>98.42</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>840</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>0.131678069941699</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>0.0434077620962493</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="2">
         <v>98.56</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>880</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>0.0361895943060517</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>0.0427714944349981</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>98.6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>920</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>0.0537992244644556</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>0.0410229939234978</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="2">
         <v>98.61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>960</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="2">
         <v>0.0898922113701701</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>0.0423862937513248</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>98.63</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>1000</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="2">
         <v>0.031911295838654</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="2">
         <v>0.0399577149557884</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="2">
         <v>98.69</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3217,7 +3223,894 @@
   <sheetPr/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.177922092378139</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.165890150578917</v>
+      </c>
+      <c r="E2" s="2">
+        <v>29.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.13154698908329</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.12523223967499</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>60</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.102510746568441</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.105502918315161</v>
+      </c>
+      <c r="E4" s="2">
+        <v>52.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.0984722971916198</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0946219031503246</v>
+      </c>
+      <c r="E5" s="2">
+        <v>58.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.0912073478102684</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0875318287189599</v>
+      </c>
+      <c r="E6" s="2">
+        <v>61.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>120</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.0858367457985878</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0822406385070199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>64.99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>140</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.0780478455126285</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0785425695691518</v>
+      </c>
+      <c r="E8" s="2">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>160</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.0804439261555671</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0752378221909711</v>
+      </c>
+      <c r="E9" s="2">
+        <v>68.26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>180</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.0802003685384988</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.0726885584177105</v>
+      </c>
+      <c r="E10" s="2">
+        <v>69.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>200</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.0741595420986414</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0706528117227706</v>
+      </c>
+      <c r="E11" s="2">
+        <v>71.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>220</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.0676365233957767</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.0687949509614971</v>
+      </c>
+      <c r="E12" s="2">
+        <v>72.39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>240</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.0599024286493659</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.0672855654339881</v>
+      </c>
+      <c r="E13" s="2">
+        <v>72.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>260</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.0640271212905645</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.0659615786591912</v>
+      </c>
+      <c r="E14" s="2">
+        <v>74.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>280</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.0613853428512811</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.0644094701975014</v>
+      </c>
+      <c r="E15" s="2">
+        <v>74.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>300</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.069470927119255</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.0634608909630092</v>
+      </c>
+      <c r="E16" s="2">
+        <v>75.53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>320</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.0605508657172322</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.0624551958861244</v>
+      </c>
+      <c r="E17" s="2">
+        <v>75.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>340</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.0577874472364783</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.0615320661739938</v>
+      </c>
+      <c r="E18" s="2">
+        <v>76.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>360</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.0609590029343962</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.0607759493646348</v>
+      </c>
+      <c r="E19" s="2">
+        <v>75.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>380</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.0574078932404518</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.0599560572225956</v>
+      </c>
+      <c r="E20" s="2">
+        <v>76.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>400</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.0641335062682628</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.0593048168975076</v>
+      </c>
+      <c r="E21" s="2">
+        <v>76.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>420</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.0568286785855889</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.0587610002535923</v>
+      </c>
+      <c r="E22" s="2">
+        <v>77.26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>440</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.0631351461634039</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.0581214474454806</v>
+      </c>
+      <c r="E23" s="2">
+        <v>77.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>460</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.0677587706595659</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.0576780709159222</v>
+      </c>
+      <c r="E24" s="2">
+        <v>77.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>480</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.0631064046174287</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.0572815400305067</v>
+      </c>
+      <c r="E25" s="2">
+        <v>78.69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>500</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.0566430557519197</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.0566495112410396</v>
+      </c>
+      <c r="E26" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
+        <v>520</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.0504946252331137</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.0559104480513721</v>
+      </c>
+      <c r="E27" s="2">
+        <v>79.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
+        <v>540</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.0577771067619323</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.0554164988077749</v>
+      </c>
+      <c r="E28" s="2">
+        <v>79.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
+        <v>560</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.0584530709311366</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.0551579757860511</v>
+      </c>
+      <c r="E29" s="2">
+        <v>79.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>580</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.0562495738267898</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.0546285807611836</v>
+      </c>
+      <c r="E30" s="2">
+        <v>79.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>600</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.0517745586112141</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.0542902299410598</v>
+      </c>
+      <c r="E31" s="2">
+        <v>79.69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
+        <v>620</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.0553408982232213</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.0538658659644187</v>
+      </c>
+      <c r="E32" s="2">
+        <v>79.87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>640</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.0474937921389937</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.0535739595011161</v>
+      </c>
+      <c r="E33" s="2">
+        <v>80.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
+        <v>660</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.0546802375465631</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.0534002968602499</v>
+      </c>
+      <c r="E34" s="2">
+        <v>80.28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
+        <v>680</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.0508373472839593</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.0530129345667779</v>
+      </c>
+      <c r="E35" s="2">
+        <v>80.73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
+        <v>700</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.0596480453386902</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.0527146868051806</v>
+      </c>
+      <c r="E36" s="2">
+        <v>80.78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
+        <v>720</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.0530648035928607</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.0524129486601254</v>
+      </c>
+      <c r="E37" s="2">
+        <v>81.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
+        <v>740</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.0564766796305775</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.0520135398811785</v>
+      </c>
+      <c r="E38" s="2">
+        <v>81.34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>760</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.0514292605221271</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.0518082885107227</v>
+      </c>
+      <c r="E39" s="2">
+        <v>81.21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
+        <v>780</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.0515910079702734</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.0515496835207483</v>
+      </c>
+      <c r="E40" s="2">
+        <v>81.44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
+        <v>800</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.0497408509254455</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.0512848149059684</v>
+      </c>
+      <c r="E41" s="2">
+        <v>81.59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
+        <v>820</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.0523200333118438</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.0512896472600045</v>
+      </c>
+      <c r="E42" s="2">
+        <v>81.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
+        <v>840</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.0512724863365292</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.0508016981065842</v>
+      </c>
+      <c r="E43" s="2">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
+        <v>860</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.0552839692682027</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.0507552066616192</v>
+      </c>
+      <c r="E44" s="2">
+        <v>81.57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
+        <v>880</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.0472774086520075</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.0504299804781842</v>
+      </c>
+      <c r="E45" s="2">
+        <v>81.51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
+        <v>900</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.0579082518815994</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.050327720844252</v>
+      </c>
+      <c r="E46" s="2">
+        <v>81.74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
+        <v>920</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.0471128141507506</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.0500891826524855</v>
+      </c>
+      <c r="E47" s="2">
+        <v>82.17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
+        <v>940</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.0492305429652333</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.0501116599152042</v>
+      </c>
+      <c r="E48" s="2">
+        <v>81.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
+        <v>960</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.0516847474500536</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.0497649295053854</v>
+      </c>
+      <c r="E49" s="2">
+        <v>82.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
+        <v>980</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.0547825703397393</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.0495019565176242</v>
+      </c>
+      <c r="E50" s="2">
+        <v>82.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.045782508328557</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.0491970799815882</v>
+      </c>
+      <c r="E51" s="2">
+        <v>82.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E51"/>
     </sheetView>
   </sheetViews>
@@ -3244,1739 +4137,852 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>20</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.177922092378139</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.165890150578917</v>
-      </c>
-      <c r="E2" s="1">
-        <v>29.69</v>
+      <c r="C2" s="2">
+        <v>2.19920241832733</v>
+      </c>
+      <c r="D2" s="2">
+        <v>2.19593756669645</v>
+      </c>
+      <c r="E2" s="2">
+        <v>31.56</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>40</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.13154698908329</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.12523223967499</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43.6</v>
+      <c r="C3" s="2">
+        <v>2.12650889158248</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2.1070843760375</v>
+      </c>
+      <c r="E3" s="2">
+        <v>54.55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.102510746568441</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.105502918315161</v>
-      </c>
-      <c r="E4" s="1">
-        <v>52.88</v>
+      <c r="C4" s="2">
+        <v>2.04123330116271</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2.03958410442255</v>
+      </c>
+      <c r="E4" s="2">
+        <v>63.87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>80</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.0984722971916198</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.0946219031503246</v>
-      </c>
-      <c r="E5" s="1">
-        <v>58.23</v>
+      <c r="C5" s="2">
+        <v>2.01047074794769</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.98993781493727</v>
+      </c>
+      <c r="E5" s="2">
+        <v>69.81</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.0912073478102684</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.0875318287189599</v>
-      </c>
-      <c r="E6" s="1">
-        <v>61.84</v>
+      <c r="C6" s="2">
+        <v>1.95104789733886</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.95116164653923</v>
+      </c>
+      <c r="E6" s="2">
+        <v>73.37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>120</v>
       </c>
-      <c r="C7" s="1">
-        <v>0.0858367457985878</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.0822406385070199</v>
-      </c>
-      <c r="E7" s="1">
-        <v>64.99</v>
+      <c r="C7" s="2">
+        <v>1.93704238533973</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.91989046449114</v>
+      </c>
+      <c r="E7" s="2">
+        <v>76.11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>140</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.0780478455126285</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.0785425695691518</v>
-      </c>
-      <c r="E8" s="1">
-        <v>66.75</v>
+      <c r="C8" s="2">
+        <v>1.89632123708724</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.89484766865991</v>
+      </c>
+      <c r="E8" s="2">
+        <v>77.92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>160</v>
       </c>
-      <c r="C9" s="1">
-        <v>0.0804439261555671</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.0752378221909711</v>
-      </c>
-      <c r="E9" s="1">
-        <v>68.26</v>
+      <c r="C9" s="2">
+        <v>1.86794099211692</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.87384489539322</v>
+      </c>
+      <c r="E9" s="2">
+        <v>78.85</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>180</v>
       </c>
-      <c r="C10" s="1">
-        <v>0.0802003685384988</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.0726885584177105</v>
-      </c>
-      <c r="E10" s="1">
-        <v>69.84</v>
+      <c r="C10" s="2">
+        <v>1.88612228631973</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.85589049500264</v>
+      </c>
+      <c r="E10" s="2">
+        <v>79.64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>200</v>
       </c>
-      <c r="C11" s="1">
-        <v>0.0741595420986414</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.0706528117227706</v>
-      </c>
-      <c r="E11" s="1">
-        <v>71.09</v>
+      <c r="C11" s="2">
+        <v>1.85804325342178</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.84088621018039</v>
+      </c>
+      <c r="E11" s="2">
+        <v>80.03</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>220</v>
       </c>
-      <c r="C12" s="1">
-        <v>0.0676365233957767</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.0687949509614971</v>
-      </c>
-      <c r="E12" s="1">
-        <v>72.39</v>
+      <c r="C12" s="2">
+        <v>1.80997049808502</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.82733680184479</v>
+      </c>
+      <c r="E12" s="2">
+        <v>80.42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>240</v>
       </c>
-      <c r="C13" s="1">
-        <v>0.0599024286493659</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.0672855654339881</v>
-      </c>
-      <c r="E13" s="1">
-        <v>72.97</v>
+      <c r="C13" s="2">
+        <v>1.80178961157798</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.81579516647727</v>
+      </c>
+      <c r="E13" s="2">
+        <v>81.05</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>260</v>
       </c>
-      <c r="C14" s="1">
-        <v>0.0640271212905645</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.0659615786591912</v>
-      </c>
-      <c r="E14" s="1">
-        <v>74.13</v>
+      <c r="C14" s="2">
+        <v>1.80765667557716</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.80580286463354</v>
+      </c>
+      <c r="E14" s="2">
+        <v>81.46</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>280</v>
       </c>
-      <c r="C15" s="1">
-        <v>0.0613853428512811</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.0644094701975014</v>
-      </c>
-      <c r="E15" s="1">
-        <v>74.33</v>
+      <c r="C15" s="2">
+        <v>1.79196617007255</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.79657445895444</v>
+      </c>
+      <c r="E15" s="2">
+        <v>81.93</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>300</v>
       </c>
-      <c r="C16" s="1">
-        <v>0.069470927119255</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.0634608909630092</v>
-      </c>
-      <c r="E16" s="1">
-        <v>75.53</v>
+      <c r="C16" s="2">
+        <v>1.80970880389213</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.78816684871722</v>
+      </c>
+      <c r="E16" s="2">
+        <v>82.18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>320</v>
       </c>
-      <c r="C17" s="1">
-        <v>0.0605508657172322</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.0624551958861244</v>
-      </c>
-      <c r="E17" s="1">
-        <v>75.23</v>
+      <c r="C17" s="2">
+        <v>1.79395028948783</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.78075388814233</v>
+      </c>
+      <c r="E17" s="2">
+        <v>82.47</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>340</v>
       </c>
-      <c r="C18" s="1">
-        <v>0.0577874472364783</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0.0615320661739938</v>
-      </c>
-      <c r="E18" s="1">
-        <v>76.02</v>
+      <c r="C18" s="2">
+        <v>1.75190064311027</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.77399971758484</v>
+      </c>
+      <c r="E18" s="2">
+        <v>82.71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>360</v>
       </c>
-      <c r="C19" s="1">
-        <v>0.0609590029343962</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0.0607759493646348</v>
-      </c>
-      <c r="E19" s="1">
-        <v>75.96</v>
+      <c r="C19" s="2">
+        <v>1.77286496758461</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.7677252436899</v>
+      </c>
+      <c r="E19" s="2">
+        <v>82.91</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>380</v>
       </c>
-      <c r="C20" s="1">
-        <v>0.0574078932404518</v>
-      </c>
-      <c r="D20" s="1">
-        <v>0.0599560572225956</v>
-      </c>
-      <c r="E20" s="1">
-        <v>76.54</v>
+      <c r="C20" s="2">
+        <v>1.7795050740242</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.76200079766048</v>
+      </c>
+      <c r="E20" s="2">
+        <v>83.33</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>400</v>
       </c>
-      <c r="C21" s="1">
-        <v>0.0641335062682628</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0.0593048168975076</v>
-      </c>
-      <c r="E21" s="1">
-        <v>76.94</v>
+      <c r="C21" s="2">
+        <v>1.72983062267303</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1.75680970841911</v>
+      </c>
+      <c r="E21" s="2">
+        <v>83.62</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>420</v>
       </c>
-      <c r="C22" s="1">
-        <v>0.0568286785855889</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0.0587610002535923</v>
-      </c>
-      <c r="E22" s="1">
-        <v>77.26</v>
+      <c r="C22" s="2">
+        <v>1.75028622150421</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1.75199519297119</v>
+      </c>
+      <c r="E22" s="2">
+        <v>83.83</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>440</v>
       </c>
-      <c r="C23" s="1">
-        <v>0.0631351461634039</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0.0581214474454806</v>
-      </c>
-      <c r="E23" s="1">
-        <v>77.98</v>
+      <c r="C23" s="2">
+        <v>1.76746109127998</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.7473898662883</v>
+      </c>
+      <c r="E23" s="2">
+        <v>83.81</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>460</v>
       </c>
-      <c r="C24" s="1">
-        <v>0.0677587706595659</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0.0576780709159222</v>
-      </c>
-      <c r="E24" s="1">
-        <v>77.56</v>
+      <c r="C24" s="2">
+        <v>1.79148507118225</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.7431111244639</v>
+      </c>
+      <c r="E24" s="2">
+        <v>83.74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>480</v>
       </c>
-      <c r="C25" s="1">
-        <v>0.0631064046174287</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.0572815400305067</v>
-      </c>
-      <c r="E25" s="1">
-        <v>78.69</v>
+      <c r="C25" s="2">
+        <v>1.77379488945007</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.73913096698226</v>
+      </c>
+      <c r="E25" s="2">
+        <v>83.99</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>500</v>
       </c>
-      <c r="C26" s="1">
-        <v>0.0566430557519197</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.0566495112410396</v>
-      </c>
-      <c r="E26" s="1">
-        <v>79</v>
+      <c r="C26" s="2">
+        <v>1.73322296142578</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.73539106936971</v>
+      </c>
+      <c r="E26" s="2">
+        <v>84.15</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>520</v>
       </c>
-      <c r="C27" s="1">
-        <v>0.0504946252331137</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.0559104480513721</v>
-      </c>
-      <c r="E27" s="1">
-        <v>79.21</v>
+      <c r="C27" s="2">
+        <v>1.70783820748329</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.73178400735186</v>
+      </c>
+      <c r="E27" s="2">
+        <v>84.39</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>540</v>
       </c>
-      <c r="C28" s="1">
-        <v>0.0577771067619323</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.0554164988077749</v>
-      </c>
-      <c r="E28" s="1">
-        <v>79.53</v>
+      <c r="C28" s="2">
+        <v>1.74002084136009</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.72835321031558</v>
+      </c>
+      <c r="E28" s="2">
+        <v>84.5</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>560</v>
       </c>
-      <c r="C29" s="1">
-        <v>0.0584530709311366</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0.0551579757860511</v>
-      </c>
-      <c r="E29" s="1">
-        <v>79.52</v>
+      <c r="C29" s="2">
+        <v>1.73623168468475</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.72525896160465</v>
+      </c>
+      <c r="E29" s="2">
+        <v>84.56</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>580</v>
       </c>
-      <c r="C30" s="1">
-        <v>0.0562495738267898</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0.0546285807611836</v>
-      </c>
-      <c r="E30" s="1">
-        <v>79.45</v>
+      <c r="C30" s="2">
+        <v>1.72487378120422</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.72224034321535</v>
+      </c>
+      <c r="E30" s="2">
+        <v>84.72</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>600</v>
       </c>
-      <c r="C31" s="1">
-        <v>0.0517745586112141</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.0542902299410598</v>
-      </c>
-      <c r="E31" s="1">
-        <v>79.69</v>
+      <c r="C31" s="2">
+        <v>1.71837559342384</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.71940752503218</v>
+      </c>
+      <c r="E31" s="2">
+        <v>84.82</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>620</v>
       </c>
-      <c r="C32" s="1">
-        <v>0.0553408982232213</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0.0538658659644187</v>
-      </c>
-      <c r="E32" s="1">
-        <v>79.87</v>
+      <c r="C32" s="2">
+        <v>1.7226193845272</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.71669412494465</v>
+      </c>
+      <c r="E32" s="2">
+        <v>85.11</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>640</v>
       </c>
-      <c r="C33" s="1">
-        <v>0.0474937921389937</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0.0535739595011161</v>
-      </c>
-      <c r="E33" s="1">
-        <v>80.13</v>
+      <c r="C33" s="2">
+        <v>1.69363349676132</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1.71416591459019</v>
+      </c>
+      <c r="E33" s="2">
+        <v>85.15</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>660</v>
       </c>
-      <c r="C34" s="1">
-        <v>0.0546802375465631</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.0534002968602499</v>
-      </c>
-      <c r="E34" s="1">
-        <v>80.28</v>
+      <c r="C34" s="2">
+        <v>1.71908923983573</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1.71176723917578</v>
+      </c>
+      <c r="E34" s="2">
+        <v>85.3</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>680</v>
       </c>
-      <c r="C35" s="1">
-        <v>0.0508373472839593</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0.0530129345667779</v>
-      </c>
-      <c r="E35" s="1">
-        <v>80.73</v>
+      <c r="C35" s="2">
+        <v>1.68989631533622</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1.70940822552723</v>
+      </c>
+      <c r="E35" s="2">
+        <v>85.27</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>700</v>
       </c>
-      <c r="C36" s="1">
-        <v>0.0596480453386902</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.0527146868051806</v>
-      </c>
-      <c r="E36" s="1">
-        <v>80.78</v>
+      <c r="C36" s="2">
+        <v>1.73644995689392</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1.70707740373672</v>
+      </c>
+      <c r="E36" s="2">
+        <v>85.34</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>720</v>
       </c>
-      <c r="C37" s="1">
-        <v>0.0530648035928607</v>
-      </c>
-      <c r="D37" s="1">
-        <v>0.0524129486601254</v>
-      </c>
-      <c r="E37" s="1">
-        <v>81.21</v>
+      <c r="C37" s="2">
+        <v>1.72481057047843</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1.70494098951862</v>
+      </c>
+      <c r="E37" s="2">
+        <v>85.38</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>740</v>
       </c>
-      <c r="C38" s="1">
-        <v>0.0564766796305775</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.0520135398811785</v>
-      </c>
-      <c r="E38" s="1">
-        <v>81.34</v>
+      <c r="C38" s="2">
+        <v>1.73783636093139</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1.70286094838646</v>
+      </c>
+      <c r="E38" s="2">
+        <v>85.44</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>760</v>
       </c>
-      <c r="C39" s="1">
-        <v>0.0514292605221271</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.0518082885107227</v>
-      </c>
-      <c r="E39" s="1">
-        <v>81.21</v>
+      <c r="C39" s="2">
+        <v>1.71762293577194</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1.70078180018503</v>
+      </c>
+      <c r="E39" s="2">
+        <v>85.65</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>780</v>
       </c>
-      <c r="C40" s="1">
-        <v>0.0515910079702734</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.0515496835207483</v>
-      </c>
-      <c r="E40" s="1">
-        <v>81.44</v>
+      <c r="C40" s="2">
+        <v>1.68408203125</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1.69886747894773</v>
+      </c>
+      <c r="E40" s="2">
+        <v>85.57</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>800</v>
       </c>
-      <c r="C41" s="1">
-        <v>0.0497408509254455</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.0512848149059684</v>
-      </c>
-      <c r="E41" s="1">
-        <v>81.59</v>
+      <c r="C41" s="2">
+        <v>1.69156193733215</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1.6970160706028</v>
+      </c>
+      <c r="E41" s="2">
+        <v>85.63</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>820</v>
       </c>
-      <c r="C42" s="1">
-        <v>0.0523200333118438</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0.0512896472600045</v>
-      </c>
-      <c r="E42" s="1">
-        <v>81.78</v>
+      <c r="C42" s="2">
+        <v>1.70674082636833</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1.69523967147632</v>
+      </c>
+      <c r="E42" s="2">
+        <v>85.79</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>840</v>
       </c>
-      <c r="C43" s="1">
-        <v>0.0512724863365292</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.0508016981065842</v>
-      </c>
-      <c r="E43" s="1">
-        <v>81.5</v>
+      <c r="C43" s="2">
+        <v>1.71040496230125</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1.6934916973114</v>
+      </c>
+      <c r="E43" s="2">
+        <v>85.93</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>860</v>
       </c>
-      <c r="C44" s="1">
-        <v>0.0552839692682027</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.0507552066616192</v>
-      </c>
-      <c r="E44" s="1">
-        <v>81.57</v>
+      <c r="C44" s="2">
+        <v>1.72137367725372</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1.69184342235516</v>
+      </c>
+      <c r="E44" s="2">
+        <v>86.04</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>880</v>
       </c>
-      <c r="C45" s="1">
-        <v>0.0472774086520075</v>
-      </c>
-      <c r="D45" s="1">
-        <v>0.0504299804781842</v>
-      </c>
-      <c r="E45" s="1">
-        <v>81.51</v>
+      <c r="C45" s="2">
+        <v>1.66612800955772</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.69025809597817</v>
+      </c>
+      <c r="E45" s="2">
+        <v>86.12</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>900</v>
       </c>
-      <c r="C46" s="1">
-        <v>0.0579082518815994</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0.050327720844252</v>
-      </c>
-      <c r="E46" s="1">
-        <v>81.74</v>
+      <c r="C46" s="2">
+        <v>1.72694015502929</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1.68880012916151</v>
+      </c>
+      <c r="E46" s="2">
+        <v>86.1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>920</v>
       </c>
-      <c r="C47" s="1">
-        <v>0.0471128141507506</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0.0500891826524855</v>
-      </c>
-      <c r="E47" s="1">
-        <v>82.17</v>
+      <c r="C47" s="2">
+        <v>1.68333688378334</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.68727404904213</v>
+      </c>
+      <c r="E47" s="2">
+        <v>86.09</v>
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>940</v>
       </c>
-      <c r="C48" s="1">
-        <v>0.0492305429652333</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0.0501116599152042</v>
-      </c>
-      <c r="E48" s="1">
-        <v>81.86</v>
+      <c r="C48" s="2">
+        <v>1.66555953025817</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.68579031859233</v>
+      </c>
+      <c r="E48" s="2">
+        <v>86.11</v>
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>960</v>
       </c>
-      <c r="C49" s="1">
-        <v>0.0516847474500536</v>
-      </c>
-      <c r="D49" s="1">
-        <v>0.0497649295053854</v>
-      </c>
-      <c r="E49" s="1">
-        <v>82.13</v>
+      <c r="C49" s="2">
+        <v>1.68712189793586</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.68437843717587</v>
+      </c>
+      <c r="E49" s="2">
+        <v>86.23</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>980</v>
       </c>
-      <c r="C50" s="1">
-        <v>0.0547825703397393</v>
-      </c>
-      <c r="D50" s="1">
-        <v>0.0495019565176242</v>
-      </c>
-      <c r="E50" s="1">
-        <v>82.41</v>
+      <c r="C50" s="2">
+        <v>1.72335448861122</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.68298896103148</v>
+      </c>
+      <c r="E50" s="2">
+        <v>86.36</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>1000</v>
       </c>
-      <c r="C51" s="1">
-        <v>0.045782508328557</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.0491970799815882</v>
-      </c>
-      <c r="E51" s="1">
-        <v>82.33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
-  <cols>
-    <col min="3" max="4" width="12.9230769230769"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>20</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.19920241832733</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.19593756669645</v>
-      </c>
-      <c r="E2" s="1">
-        <v>31.56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>40</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.12650889158248</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.1070843760375</v>
-      </c>
-      <c r="E3" s="1">
-        <v>54.55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.04123330116271</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.03958410442255</v>
-      </c>
-      <c r="E4" s="1">
-        <v>63.87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>80</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.01047074794769</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.98993781493727</v>
-      </c>
-      <c r="E5" s="1">
-        <v>69.81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>100</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.95104789733886</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1.95116164653923</v>
-      </c>
-      <c r="E6" s="1">
-        <v>73.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>120</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.93704238533973</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1.91989046449114</v>
-      </c>
-      <c r="E7" s="1">
-        <v>76.11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>140</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.89632123708724</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.89484766865991</v>
-      </c>
-      <c r="E8" s="1">
-        <v>77.92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>160</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.86794099211692</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.87384489539322</v>
-      </c>
-      <c r="E9" s="1">
-        <v>78.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>180</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.88612228631973</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.85589049500264</v>
-      </c>
-      <c r="E10" s="1">
-        <v>79.64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>200</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.85804325342178</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.84088621018039</v>
-      </c>
-      <c r="E11" s="1">
-        <v>80.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>220</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.80997049808502</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.82733680184479</v>
-      </c>
-      <c r="E12" s="1">
-        <v>80.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>240</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.80178961157798</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1.81579516647727</v>
-      </c>
-      <c r="E13" s="1">
-        <v>81.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>260</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.80765667557716</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1.80580286463354</v>
-      </c>
-      <c r="E14" s="1">
-        <v>81.46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>280</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.79196617007255</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1.79657445895444</v>
-      </c>
-      <c r="E15" s="1">
-        <v>81.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>300</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.80970880389213</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.78816684871722</v>
-      </c>
-      <c r="E16" s="1">
-        <v>82.18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1">
-        <v>320</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.79395028948783</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.78075388814233</v>
-      </c>
-      <c r="E17" s="1">
-        <v>82.47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1">
-        <v>340</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.75190064311027</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.77399971758484</v>
-      </c>
-      <c r="E18" s="1">
-        <v>82.71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>360</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.77286496758461</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.7677252436899</v>
-      </c>
-      <c r="E19" s="1">
-        <v>82.91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>380</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.7795050740242</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1.76200079766048</v>
-      </c>
-      <c r="E20" s="1">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>400</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.72983062267303</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1.75680970841911</v>
-      </c>
-      <c r="E21" s="1">
-        <v>83.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>420</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.75028622150421</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.75199519297119</v>
-      </c>
-      <c r="E22" s="1">
-        <v>83.83</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>440</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1.76746109127998</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.7473898662883</v>
-      </c>
-      <c r="E23" s="1">
-        <v>83.81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1">
-        <v>460</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1.79148507118225</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1.7431111244639</v>
-      </c>
-      <c r="E24" s="1">
-        <v>83.74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1">
-        <v>480</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1.77379488945007</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1.73913096698226</v>
-      </c>
-      <c r="E25" s="1">
-        <v>83.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1">
-        <v>500</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1.73322296142578</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1.73539106936971</v>
-      </c>
-      <c r="E26" s="1">
-        <v>84.15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
-        <v>520</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1.70783820748329</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1.73178400735186</v>
-      </c>
-      <c r="E27" s="1">
-        <v>84.39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1">
-        <v>540</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.74002084136009</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1.72835321031558</v>
-      </c>
-      <c r="E28" s="1">
-        <v>84.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
-        <v>560</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1.73623168468475</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1.72525896160465</v>
-      </c>
-      <c r="E29" s="1">
-        <v>84.56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1">
-        <v>580</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1.72487378120422</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1.72224034321535</v>
-      </c>
-      <c r="E30" s="1">
-        <v>84.72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
-        <v>600</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1.71837559342384</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1.71940752503218</v>
-      </c>
-      <c r="E31" s="1">
-        <v>84.82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>620</v>
-      </c>
-      <c r="C32" s="1">
-        <v>1.7226193845272</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1.71669412494465</v>
-      </c>
-      <c r="E32" s="1">
-        <v>85.11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>640</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1.69363349676132</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1.71416591459019</v>
-      </c>
-      <c r="E33" s="1">
-        <v>85.15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>660</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1.71908923983573</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1.71176723917578</v>
-      </c>
-      <c r="E34" s="1">
-        <v>85.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>680</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1.68989631533622</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1.70940822552723</v>
-      </c>
-      <c r="E35" s="1">
-        <v>85.27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1">
-        <v>700</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1.73644995689392</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1.70707740373672</v>
-      </c>
-      <c r="E36" s="1">
-        <v>85.34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1">
-        <v>720</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1.72481057047843</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1.70494098951862</v>
-      </c>
-      <c r="E37" s="1">
-        <v>85.38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <v>740</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1.73783636093139</v>
-      </c>
-      <c r="D38" s="1">
-        <v>1.70286094838646</v>
-      </c>
-      <c r="E38" s="1">
-        <v>85.44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1">
-        <v>760</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1.71762293577194</v>
-      </c>
-      <c r="D39" s="1">
-        <v>1.70078180018503</v>
-      </c>
-      <c r="E39" s="1">
-        <v>85.65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>780</v>
-      </c>
-      <c r="C40" s="1">
-        <v>1.68408203125</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1.69886747894773</v>
-      </c>
-      <c r="E40" s="1">
-        <v>85.57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>800</v>
-      </c>
-      <c r="C41" s="1">
-        <v>1.69156193733215</v>
-      </c>
-      <c r="D41" s="1">
-        <v>1.6970160706028</v>
-      </c>
-      <c r="E41" s="1">
-        <v>85.63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1">
-        <v>820</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1.70674082636833</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1.69523967147632</v>
-      </c>
-      <c r="E42" s="1">
-        <v>85.79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1">
-        <v>840</v>
-      </c>
-      <c r="C43" s="1">
-        <v>1.71040496230125</v>
-      </c>
-      <c r="D43" s="1">
-        <v>1.6934916973114</v>
-      </c>
-      <c r="E43" s="1">
-        <v>85.93</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1">
-        <v>860</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1.72137367725372</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1.69184342235516</v>
-      </c>
-      <c r="E44" s="1">
-        <v>86.04</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
-        <v>880</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1.66612800955772</v>
-      </c>
-      <c r="D45" s="1">
-        <v>1.69025809597817</v>
-      </c>
-      <c r="E45" s="1">
-        <v>86.12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1">
-        <v>900</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1.72694015502929</v>
-      </c>
-      <c r="D46" s="1">
-        <v>1.68880012916151</v>
-      </c>
-      <c r="E46" s="1">
-        <v>86.1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1">
-        <v>920</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1.68333688378334</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1.68727404904213</v>
-      </c>
-      <c r="E47" s="1">
-        <v>86.09</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1">
-        <v>940</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1.66555953025817</v>
-      </c>
-      <c r="D48" s="1">
-        <v>1.68579031859233</v>
-      </c>
-      <c r="E48" s="1">
-        <v>86.11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1">
-        <v>960</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1.68712189793586</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1.68437843717587</v>
-      </c>
-      <c r="E49" s="1">
-        <v>86.23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1">
-        <v>980</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1.72335448861122</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1.68298896103148</v>
-      </c>
-      <c r="E50" s="1">
-        <v>86.36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>1.67436349391937</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>1.68155891728249</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" s="2">
         <v>86.46</v>
       </c>
     </row>
@@ -4992,7 +4998,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E26"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -5018,20 +5024,483 @@
       </c>
     </row>
     <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.98262453079223</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.91351952066846</v>
+      </c>
+      <c r="E2" s="2">
+        <v>70.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.792653307318687</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.695407279927259</v>
+      </c>
+      <c r="E3" s="2">
+        <v>84.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>120</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.554734230041503</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.455674490493953</v>
+      </c>
+      <c r="E4" s="2">
+        <v>86.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.496295623481273</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.382140910122424</v>
+      </c>
+      <c r="E5" s="2">
+        <v>89.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.435069091618061</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.346934087076194</v>
+      </c>
+      <c r="E6" s="2">
+        <v>89.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>240</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.290396485477685</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.32324722202815</v>
+      </c>
+      <c r="E7" s="2">
+        <v>90.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>280</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.29006864503026</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.302853032685579</v>
+      </c>
+      <c r="E8" s="2">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>320</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.368893077597022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.293776183074731</v>
+      </c>
+      <c r="E9" s="2">
+        <v>91.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>360</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.359397191554307</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.291926521333349</v>
+      </c>
+      <c r="E10" s="2">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>400</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.309996725991368</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.272487909622063</v>
+      </c>
+      <c r="E11" s="2">
+        <v>92.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>440</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.295050725340843</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.266237831045725</v>
+      </c>
+      <c r="E12" s="2">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>480</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.33581443503499</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.26247361008149</v>
+      </c>
+      <c r="E13" s="2">
+        <v>92.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>520</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.125459305942058</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.246437425760753</v>
+      </c>
+      <c r="E14" s="2">
+        <v>92.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>560</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.310115199536085</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.238664339521935</v>
+      </c>
+      <c r="E15" s="2">
+        <v>92.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>600</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.254306295886635</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.227863285334626</v>
+      </c>
+      <c r="E16" s="2">
+        <v>93.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>640</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.199297595769166</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.225529094748673</v>
+      </c>
+      <c r="E17" s="2">
+        <v>93.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>680</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.219034247100353</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.218499848886043</v>
+      </c>
+      <c r="E18" s="2">
+        <v>93.47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>720</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.304813534021377</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.209291091580299</v>
+      </c>
+      <c r="E19" s="2">
+        <v>93.97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
+        <v>760</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.216272175312042</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.2095935263843</v>
+      </c>
+      <c r="E20" s="2">
+        <v>93.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>800</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.209338840097188</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.20232449908545</v>
+      </c>
+      <c r="E21" s="2">
+        <v>94.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
+        <v>840</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.275819394737482</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.200690302902915</v>
+      </c>
+      <c r="E22" s="2">
+        <v>94.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>880</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.0942077320069074</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.195482927273697</v>
+      </c>
+      <c r="E23" s="2">
+        <v>94.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
+        <v>920</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.162842888385057</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.191492158430183</v>
+      </c>
+      <c r="E24" s="2">
+        <v>94.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
+        <v>960</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.260459709912538</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.182794150068857</v>
+      </c>
+      <c r="E25" s="2">
+        <v>94.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.1678001973778</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.176904171043829</v>
+      </c>
+      <c r="E26" s="2">
+        <v>94.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="11.7692307692308"/>
+    <col min="4" max="4" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1">
-        <v>1.98262453079223</v>
+        <v>0.15085607022047</v>
       </c>
       <c r="D2" s="1">
-        <v>1.91351952066846</v>
+        <v>0.271161017903856</v>
       </c>
       <c r="E2" s="1">
-        <v>70.24</v>
+        <v>33.06</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5039,16 +5508,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
-        <v>0.792653307318687</v>
+        <v>0.10642378591001</v>
       </c>
       <c r="D3" s="1">
-        <v>0.695407279927259</v>
+        <v>0.103684985333946</v>
       </c>
       <c r="E3" s="1">
-        <v>84.55</v>
+        <v>66.42</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5056,16 +5525,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1">
-        <v>0.554734230041503</v>
+        <v>0.0804841108620166</v>
       </c>
       <c r="D4" s="1">
-        <v>0.455674490493953</v>
+        <v>0.0841169599799593</v>
       </c>
       <c r="E4" s="1">
-        <v>86.57</v>
+        <v>71.43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5073,16 +5542,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1">
-        <v>0.496295623481273</v>
+        <v>0.0711824391037225</v>
       </c>
       <c r="D5" s="1">
-        <v>0.382140910122424</v>
+        <v>0.0762978199466019</v>
       </c>
       <c r="E5" s="1">
-        <v>89.01</v>
+        <v>72.63</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5090,16 +5559,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
-        <v>0.435069091618061</v>
+        <v>0.0746949017047882</v>
       </c>
       <c r="D6" s="1">
-        <v>0.346934087076194</v>
+        <v>0.0689265690269363</v>
       </c>
       <c r="E6" s="1">
-        <v>89.82</v>
+        <v>75.35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5107,16 +5576,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1">
-        <v>0.290396485477685</v>
+        <v>0.0665518268942833</v>
       </c>
       <c r="D7" s="1">
-        <v>0.32324722202815</v>
+        <v>0.0636960264224155</v>
       </c>
       <c r="E7" s="1">
-        <v>90.57</v>
+        <v>76.69</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5124,16 +5593,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1">
-        <v>0.29006864503026</v>
+        <v>0.0621803449466824</v>
       </c>
       <c r="D8" s="1">
-        <v>0.302853032685579</v>
+        <v>0.0601153899529936</v>
       </c>
       <c r="E8" s="1">
-        <v>91.2</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5141,16 +5610,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1">
-        <v>0.368893077597022</v>
+        <v>0.058241450227797</v>
       </c>
       <c r="D9" s="1">
-        <v>0.293776183074731</v>
+        <v>0.0572670622710969</v>
       </c>
       <c r="E9" s="1">
-        <v>91.46</v>
+        <v>78.47</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5158,16 +5627,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="C10" s="1">
-        <v>0.359397191554307</v>
+        <v>0.0589327700436115</v>
       </c>
       <c r="D10" s="1">
-        <v>0.291926521333349</v>
+        <v>0.0548328787420585</v>
       </c>
       <c r="E10" s="1">
-        <v>91.38</v>
+        <v>79.14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5175,16 +5644,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1">
-        <v>0.309996725991368</v>
+        <v>0.0524649359285831</v>
       </c>
       <c r="D11" s="1">
-        <v>0.272487909622063</v>
+        <v>0.0528185049629515</v>
       </c>
       <c r="E11" s="1">
-        <v>92.27</v>
+        <v>80.13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5192,16 +5661,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>440</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1">
-        <v>0.295050725340843</v>
+        <v>0.052548723295331</v>
       </c>
       <c r="D12" s="1">
-        <v>0.266237831045725</v>
+        <v>0.0510944307419904</v>
       </c>
       <c r="E12" s="1">
-        <v>92.3</v>
+        <v>81.42</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5209,16 +5678,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1">
-        <v>0.33581443503499</v>
+        <v>0.0500730937346816</v>
       </c>
       <c r="D13" s="1">
-        <v>0.26247361008149</v>
+        <v>0.0496278542811703</v>
       </c>
       <c r="E13" s="1">
-        <v>92.27</v>
+        <v>82.33</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -5226,16 +5695,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="C14" s="1">
-        <v>0.125459305942058</v>
+        <v>0.050031186081469</v>
       </c>
       <c r="D14" s="1">
-        <v>0.246437425760753</v>
+        <v>0.0484444419527129</v>
       </c>
       <c r="E14" s="1">
-        <v>92.73</v>
+        <v>82.51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5243,16 +5712,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>560</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1">
-        <v>0.310115199536085</v>
+        <v>0.047776835039258</v>
       </c>
       <c r="D15" s="1">
-        <v>0.238664339521935</v>
+        <v>0.048038168128129</v>
       </c>
       <c r="E15" s="1">
-        <v>92.94</v>
+        <v>82.79</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -5260,16 +5729,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="C16" s="1">
-        <v>0.254306295886635</v>
+        <v>0.0458111772313714</v>
       </c>
       <c r="D16" s="1">
-        <v>0.227863285334626</v>
+        <v>0.0466365497677948</v>
       </c>
       <c r="E16" s="1">
-        <v>93.32</v>
+        <v>83.42</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -5277,16 +5746,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="C17" s="1">
-        <v>0.199297595769166</v>
+        <v>0.0498428521677851</v>
       </c>
       <c r="D17" s="1">
-        <v>0.225529094748673</v>
+        <v>0.0458824017862225</v>
       </c>
       <c r="E17" s="1">
-        <v>93.42</v>
+        <v>83.68</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5294,16 +5763,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>680</v>
+        <v>340</v>
       </c>
       <c r="C18" s="1">
-        <v>0.219034247100353</v>
+        <v>0.045387920923531</v>
       </c>
       <c r="D18" s="1">
-        <v>0.218499848886043</v>
+        <v>0.045162800319825</v>
       </c>
       <c r="E18" s="1">
-        <v>93.47</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -5311,16 +5780,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="C19" s="1">
-        <v>0.304813534021377</v>
+        <v>0.048341890797019</v>
       </c>
       <c r="D19" s="1">
-        <v>0.209291091580299</v>
+        <v>0.0444097857993499</v>
       </c>
       <c r="E19" s="1">
-        <v>93.97</v>
+        <v>84.41</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -5328,16 +5797,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="C20" s="1">
-        <v>0.216272175312042</v>
+        <v>0.0476190010085701</v>
       </c>
       <c r="D20" s="1">
-        <v>0.2095935263843</v>
+        <v>0.0438563808039495</v>
       </c>
       <c r="E20" s="1">
-        <v>93.86</v>
+        <v>84.38</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5345,16 +5814,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="C21" s="1">
-        <v>0.209338840097188</v>
+        <v>0.0411024484783411</v>
       </c>
       <c r="D21" s="1">
-        <v>0.20232449908545</v>
+        <v>0.0437520694960454</v>
       </c>
       <c r="E21" s="1">
-        <v>94.11</v>
+        <v>84.17</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -5362,16 +5831,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>840</v>
+        <v>420</v>
       </c>
       <c r="C22" s="1">
-        <v>0.275819394737482</v>
+        <v>0.0442857593297958</v>
       </c>
       <c r="D22" s="1">
-        <v>0.200690302902915</v>
+        <v>0.0431633655242859</v>
       </c>
       <c r="E22" s="1">
-        <v>94.05</v>
+        <v>84.52</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -5379,16 +5848,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>880</v>
+        <v>440</v>
       </c>
       <c r="C23" s="1">
-        <v>0.0942077320069074</v>
+        <v>0.0445136791095137</v>
       </c>
       <c r="D23" s="1">
-        <v>0.195482927273697</v>
+        <v>0.0428052232333808</v>
       </c>
       <c r="E23" s="1">
-        <v>94.02</v>
+        <v>84.7</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5396,16 +5865,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>920</v>
+        <v>460</v>
       </c>
       <c r="C24" s="1">
-        <v>0.162842888385057</v>
+        <v>0.0429538786411285</v>
       </c>
       <c r="D24" s="1">
-        <v>0.191492158430183</v>
+        <v>0.0424957013671185</v>
       </c>
       <c r="E24" s="1">
-        <v>94.37</v>
+        <v>84.58</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5413,16 +5882,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="C25" s="1">
-        <v>0.260459709912538</v>
+        <v>0.0426035746932029</v>
       </c>
       <c r="D25" s="1">
-        <v>0.182794150068857</v>
+        <v>0.0422009762827378</v>
       </c>
       <c r="E25" s="1">
-        <v>94.85</v>
+        <v>84.54</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5430,16 +5899,1790 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
+        <v>500</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0416003186255693</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.0420760488268106</v>
+      </c>
+      <c r="E26" s="1">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>520</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.0438909484073519</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.0418541785685499</v>
+      </c>
+      <c r="E27" s="1">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>540</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.0404317202046513</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.0416861079206132</v>
+      </c>
+      <c r="E28" s="1">
+        <v>84.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>560</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.0404651090502738</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.0415051228538819</v>
+      </c>
+      <c r="E29" s="1">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>580</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.043535703793168</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.0411492335805847</v>
+      </c>
+      <c r="E30" s="1">
+        <v>85.18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>600</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.0397265674546361</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.0406607877059726</v>
+      </c>
+      <c r="E31" s="1">
+        <v>85.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>620</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.0432906877249479</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.0409094898896232</v>
+      </c>
+      <c r="E32" s="1">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>640</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.0465314900502562</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.0408078737580662</v>
+      </c>
+      <c r="E33" s="1">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>660</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.0415077721700072</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.040705885287303</v>
+      </c>
+      <c r="E34" s="1">
+        <v>85.45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>680</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.0438474295660853</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.0404564878031326</v>
+      </c>
+      <c r="E35" s="1">
+        <v>85.43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>700</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.0423133932054042</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.0402665723257573</v>
+      </c>
+      <c r="E36" s="1">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>720</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.0428029736503958</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.0403813081941786</v>
+      </c>
+      <c r="E37" s="1">
+        <v>85.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>740</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.0408410625532269</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.0403427578105478</v>
+      </c>
+      <c r="E38" s="1">
+        <v>85.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>760</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.0428969636559486</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.0402213138569692</v>
+      </c>
+      <c r="E39" s="1">
+        <v>85.29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>780</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0.0379999671131372</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.0401671491800599</v>
+      </c>
+      <c r="E40" s="1">
+        <v>84.96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>800</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0.0436777444556355</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.0398068852176901</v>
+      </c>
+      <c r="E41" s="1">
+        <v>85.69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>820</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.0414804117754101</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.0400886678130953</v>
+      </c>
+      <c r="E42" s="1">
+        <v>84.97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>840</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.0400558616966009</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.0401091564944974</v>
+      </c>
+      <c r="E43" s="1">
+        <v>85.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>860</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.0404912550002336</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.039769992018771</v>
+      </c>
+      <c r="E44" s="1">
+        <v>85.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>880</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.0363160884007811</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.0400575477701083</v>
+      </c>
+      <c r="E45" s="1">
+        <v>84.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>900</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.0395438401028513</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.0398494420442611</v>
+      </c>
+      <c r="E46" s="1">
+        <v>86.03</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>920</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.0393693232908844</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.0396112579686246</v>
+      </c>
+      <c r="E47" s="1">
+        <v>85.29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>940</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.041664870455861</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.0397097577050233</v>
+      </c>
+      <c r="E48" s="1">
+        <v>85.72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>960</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.0424791695550084</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.0396276408462387</v>
+      </c>
+      <c r="E49" s="1">
+        <v>85.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>980</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.0408101724460721</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.0396313441051229</v>
+      </c>
+      <c r="E50" s="1">
+        <v>85.19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
         <v>1000</v>
       </c>
+      <c r="C51" s="1">
+        <v>0.0402174219489097</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.039681463793015</v>
+      </c>
+      <c r="E51" s="1">
+        <v>86.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.21146142482757</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.1131085650936</v>
+      </c>
+      <c r="E2" s="1">
+        <v>55.82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.04409253597259</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1.95390824223779</v>
+      </c>
+      <c r="E3" s="1">
+        <v>74.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.91140645742416</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.84552190637892</v>
+      </c>
+      <c r="E4" s="1">
+        <v>78.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>80</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.82747694849967</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1.77589541711625</v>
+      </c>
+      <c r="E5" s="1">
+        <v>80.78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.78890505433082</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.7338591092711</v>
+      </c>
+      <c r="E6" s="1">
+        <v>82.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.73042583465576</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.70698462929695</v>
+      </c>
+      <c r="E7" s="1">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>140</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.72505387663841</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.68807233442926</v>
+      </c>
+      <c r="E8" s="1">
+        <v>83.94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>160</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.69832727313041</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.6747897567263</v>
+      </c>
+      <c r="E9" s="1">
+        <v>84.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>180</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.65350410342216</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.6642542022049</v>
+      </c>
+      <c r="E10" s="1">
+        <v>84.66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.68033266067504</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.65524012799475</v>
+      </c>
+      <c r="E11" s="1">
+        <v>84.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>220</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.6608318388462</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.64826279233215</v>
+      </c>
+      <c r="E12" s="1">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>240</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.66163897514343</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.64275491921005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>85.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>260</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.65077629685401</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.63742686153217</v>
+      </c>
+      <c r="E14" s="1">
+        <v>85.91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>280</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.6449981033802</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1.63310996666076</v>
+      </c>
+      <c r="E15" s="1">
+        <v>86.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>300</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.63850736618042</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.62955310162465</v>
+      </c>
+      <c r="E16" s="1">
+        <v>86.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>320</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.64625385403633</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.62580943183534</v>
+      </c>
+      <c r="E17" s="1">
+        <v>86.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>340</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.6511155962944</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.6226139577331</v>
+      </c>
+      <c r="E18" s="1">
+        <v>86.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>360</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.61611288785934</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.62003029759522</v>
+      </c>
+      <c r="E19" s="1">
+        <v>86.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>380</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.63537368178367</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.61706828539538</v>
+      </c>
+      <c r="E20" s="1">
+        <v>87.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>400</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.62080377340316</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.61433628182502</v>
+      </c>
+      <c r="E21" s="1">
+        <v>87.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>420</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.62071576714515</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.61214468433598</v>
+      </c>
+      <c r="E22" s="1">
+        <v>87.55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>440</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1.64598703384399</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.60985580523302</v>
+      </c>
+      <c r="E23" s="1">
+        <v>87.72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>460</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.62407347559928</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.60823589980981</v>
+      </c>
+      <c r="E24" s="1">
+        <v>87.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>480</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1.61961284279823</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.60642648046943</v>
+      </c>
+      <c r="E25" s="1">
+        <v>87.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>500</v>
+      </c>
       <c r="C26" s="1">
-        <v>0.1678001973778</v>
+        <v>1.60505902767181</v>
       </c>
       <c r="D26" s="1">
-        <v>0.176904171043829</v>
+        <v>1.60500855886252</v>
       </c>
       <c r="E26" s="1">
-        <v>94.66</v>
+        <v>88.03</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>520</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.62838900089263</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.60326285422987</v>
+      </c>
+      <c r="E27" s="1">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>540</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.59969553351402</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.60154647811962</v>
+      </c>
+      <c r="E28" s="1">
+        <v>88.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>560</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1.60848420858383</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.59983666155748</v>
+      </c>
+      <c r="E29" s="1">
+        <v>88.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <v>580</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.61293935775756</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1.59940128797178</v>
+      </c>
+      <c r="E30" s="1">
+        <v>88.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>600</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1.58472189307212</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.59732738042333</v>
+      </c>
+      <c r="E31" s="1">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>620</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.59371846914291</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.59626827574079</v>
+      </c>
+      <c r="E32" s="1">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>640</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.59221562743186</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1.59536130716846</v>
+      </c>
+      <c r="E33" s="1">
+        <v>88.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>660</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.60971173644065</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1.59407266765643</v>
+      </c>
+      <c r="E34" s="1">
+        <v>88.31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <v>680</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.58438268303871</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1.59325391092118</v>
+      </c>
+      <c r="E35" s="1">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>700</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1.59002250432968</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1.59278202132814</v>
+      </c>
+      <c r="E36" s="1">
+        <v>88.37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>720</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1.59581211209297</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1.59141368471133</v>
+      </c>
+      <c r="E37" s="1">
+        <v>88.44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>740</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.59657508134841</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.59058169118917</v>
+      </c>
+      <c r="E38" s="1">
+        <v>88.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <v>760</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.60027113556861</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1.59011292229792</v>
+      </c>
+      <c r="E39" s="1">
+        <v>88.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>780</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1.6262030005455</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.58939632336804</v>
+      </c>
+      <c r="E40" s="1">
+        <v>88.57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>800</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1.58923065662384</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1.58892285368245</v>
+      </c>
+      <c r="E41" s="1">
+        <v>88.59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <v>820</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.57998073101043</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1.58842586787642</v>
+      </c>
+      <c r="E42" s="1">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1">
+        <v>840</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.59638303518295</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1.58754480720325</v>
+      </c>
+      <c r="E43" s="1">
+        <v>88.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1">
+        <v>860</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.60587736964225</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1.58750450155537</v>
+      </c>
+      <c r="E44" s="1">
+        <v>88.81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <v>880</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.57586839795112</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.5863938172152</v>
+      </c>
+      <c r="E45" s="1">
+        <v>88.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1">
+        <v>900</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.61033234000206</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1.58580286943229</v>
+      </c>
+      <c r="E46" s="1">
+        <v>88.91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1">
+        <v>920</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.57636255025863</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1.58543513459005</v>
+      </c>
+      <c r="E47" s="1">
+        <v>88.97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1">
+        <v>940</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.56505274772644</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1.58465309431598</v>
+      </c>
+      <c r="E48" s="1">
+        <v>89.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1">
+        <v>960</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1.59024304151535</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1.58432134701188</v>
+      </c>
+      <c r="E49" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1">
+        <v>980</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1.6248053908348</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1.58416169919785</v>
+      </c>
+      <c r="E50" s="1">
+        <v>89.09</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.5779849588871</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1.58340068455714</v>
+      </c>
+      <c r="E51" s="1">
+        <v>89.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="4" width="12.9230769230769"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.56555262207984</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.70630052552861</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79.86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>80</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.612599484622478</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.512717970901993</v>
+      </c>
+      <c r="E3" s="1">
+        <v>86.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.514117836952209</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.517828524160157</v>
+      </c>
+      <c r="E4" s="1">
+        <v>87.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.347025208175182</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.362794727609036</v>
+      </c>
+      <c r="E5" s="1">
+        <v>90.52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.374225676059722</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.317199922908263</v>
+      </c>
+      <c r="E6" s="1">
+        <v>90.58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>240</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.422621794044971</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.262330137857585</v>
+      </c>
+      <c r="E7" s="1">
+        <v>92.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>280</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.207593791186809</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.220225767131633</v>
+      </c>
+      <c r="E8" s="1">
+        <v>93.48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>320</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.233485165983438</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.208753205023136</v>
+      </c>
+      <c r="E9" s="1">
+        <v>93.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>360</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.231278955936431</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.188991992479297</v>
+      </c>
+      <c r="E10" s="1">
+        <v>94.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>400</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.150236569344997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.174013668706842</v>
+      </c>
+      <c r="E11" s="1">
+        <v>94.87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>440</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.13461210206151</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.171092368211526</v>
+      </c>
+      <c r="E12" s="1">
+        <v>94.92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>480</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.219165548682212</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.158819860927048</v>
+      </c>
+      <c r="E13" s="1">
+        <v>95.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>520</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.135438101366162</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.148739142034938</v>
+      </c>
+      <c r="E14" s="1">
+        <v>95.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>560</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.127751899883151</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.137040782494434</v>
+      </c>
+      <c r="E15" s="1">
+        <v>95.77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>600</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.123111984692513</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.132121175752988</v>
+      </c>
+      <c r="E16" s="1">
+        <v>96.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>640</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.199054041877388</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.124115423649359</v>
+      </c>
+      <c r="E17" s="1">
+        <v>96.39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>680</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.149593133479356</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.124169746918046</v>
+      </c>
+      <c r="E18" s="1">
+        <v>96.12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>720</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.0846652360633015</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.120345953484154</v>
+      </c>
+      <c r="E19" s="1">
+        <v>96.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>760</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.0754267927259206</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.110798400281009</v>
+      </c>
+      <c r="E20" s="1">
+        <v>96.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1">
+        <v>800</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.0690460847690701</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.10881576229741</v>
+      </c>
+      <c r="E21" s="1">
+        <v>96.66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>840</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.10673566814512</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.100361130986315</v>
+      </c>
+      <c r="E22" s="1">
+        <v>96.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>880</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.150387179106473</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.099750977555278</v>
+      </c>
+      <c r="E23" s="1">
+        <v>96.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>920</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.104242699220776</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.0986377071577367</v>
+      </c>
+      <c r="E24" s="1">
+        <v>96.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>960</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.0893166605383157</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.0892386184827347</v>
+      </c>
+      <c r="E25" s="1">
+        <v>97.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.0602274257689714</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.0847794002183019</v>
+      </c>
+      <c r="E26" s="1">
+        <v>97.44</v>
       </c>
     </row>
   </sheetData>

--- a/result_all.xlsx
+++ b/result_all.xlsx
@@ -1370,7 +1370,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E243"/>
+  <dimension ref="A1:E352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4524,6 +4524,1859 @@
       </c>
       <c r="E243" t="n">
         <v>85.39</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0</v>
+      </c>
+      <c r="B244" t="n">
+        <v>20</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.1710742563009262</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.2567243507713269</v>
+      </c>
+      <c r="E244" t="n">
+        <v>45.74</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1</v>
+      </c>
+      <c r="B245" t="n">
+        <v>40</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.1091716308146715</v>
+      </c>
+      <c r="D245" t="n">
+        <v>0.108564205467701</v>
+      </c>
+      <c r="E245" t="n">
+        <v>65.84999999999999</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>2</v>
+      </c>
+      <c r="B246" t="n">
+        <v>60</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.0896928645670414</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.08543400134250617</v>
+      </c>
+      <c r="E246" t="n">
+        <v>72.25</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>3</v>
+      </c>
+      <c r="B247" t="n">
+        <v>80</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.08216517791152</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.07525218546295621</v>
+      </c>
+      <c r="E247" t="n">
+        <v>74.29000000000001</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>4</v>
+      </c>
+      <c r="B248" t="n">
+        <v>100</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.07248461525887251</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.06798518935491325</v>
+      </c>
+      <c r="E248" t="n">
+        <v>76.89</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>5</v>
+      </c>
+      <c r="B249" t="n">
+        <v>120</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.07001964189112186</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.06350777120252324</v>
+      </c>
+      <c r="E249" t="n">
+        <v>77.62</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>6</v>
+      </c>
+      <c r="B250" t="n">
+        <v>140</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.06074380688369274</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.06048759903497757</v>
+      </c>
+      <c r="E250" t="n">
+        <v>78.90000000000001</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>7</v>
+      </c>
+      <c r="B251" t="n">
+        <v>160</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.05958325415849686</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.05819767623380491</v>
+      </c>
+      <c r="E251" t="n">
+        <v>79.23999999999999</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>8</v>
+      </c>
+      <c r="B252" t="n">
+        <v>180</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.05457935016602278</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.05572722757318217</v>
+      </c>
+      <c r="E252" t="n">
+        <v>79.83</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>9</v>
+      </c>
+      <c r="B253" t="n">
+        <v>200</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.05534288659691811</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.05375203309924739</v>
+      </c>
+      <c r="E253" t="n">
+        <v>80.34999999999999</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>10</v>
+      </c>
+      <c r="B254" t="n">
+        <v>220</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.05297745112329721</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.05177126680115226</v>
+      </c>
+      <c r="E254" t="n">
+        <v>80.79000000000001</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>11</v>
+      </c>
+      <c r="B255" t="n">
+        <v>240</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.05202503316104412</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.05027844870735886</v>
+      </c>
+      <c r="E255" t="n">
+        <v>81.69</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>12</v>
+      </c>
+      <c r="B256" t="n">
+        <v>260</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.04913112241774797</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0.04875864330560539</v>
+      </c>
+      <c r="E256" t="n">
+        <v>82.06999999999999</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>13</v>
+      </c>
+      <c r="B257" t="n">
+        <v>280</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.04855763539671898</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.04752395413578696</v>
+      </c>
+      <c r="E257" t="n">
+        <v>82.95</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>14</v>
+      </c>
+      <c r="B258" t="n">
+        <v>300</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.04420352820307016</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.04642268172969484</v>
+      </c>
+      <c r="E258" t="n">
+        <v>82.63</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>15</v>
+      </c>
+      <c r="B259" t="n">
+        <v>320</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.04359078407287598</v>
+      </c>
+      <c r="D259" t="n">
+        <v>0.04571539192063034</v>
+      </c>
+      <c r="E259" t="n">
+        <v>83.03</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>16</v>
+      </c>
+      <c r="B260" t="n">
+        <v>340</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.04512166511267424</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0.04491265167950825</v>
+      </c>
+      <c r="E260" t="n">
+        <v>83.64</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>17</v>
+      </c>
+      <c r="B261" t="n">
+        <v>360</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.04360572714358568</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0.0447797406535999</v>
+      </c>
+      <c r="E261" t="n">
+        <v>83.53</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>18</v>
+      </c>
+      <c r="B262" t="n">
+        <v>380</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.04362150002270937</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.0442712853431322</v>
+      </c>
+      <c r="E262" t="n">
+        <v>84.17</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>19</v>
+      </c>
+      <c r="B263" t="n">
+        <v>400</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.0429083239287138</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0.04364778227202452</v>
+      </c>
+      <c r="E263" t="n">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>20</v>
+      </c>
+      <c r="B264" t="n">
+        <v>420</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.04384863283485174</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.04360896607588051</v>
+      </c>
+      <c r="E264" t="n">
+        <v>84.15000000000001</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>21</v>
+      </c>
+      <c r="B265" t="n">
+        <v>440</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.04460264183580875</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.04320934789765413</v>
+      </c>
+      <c r="E265" t="n">
+        <v>84.38</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>22</v>
+      </c>
+      <c r="B266" t="n">
+        <v>460</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.04503542929887772</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.04250959328310505</v>
+      </c>
+      <c r="E266" t="n">
+        <v>84.56</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>23</v>
+      </c>
+      <c r="B267" t="n">
+        <v>480</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.04548233840614557</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.04251995369507249</v>
+      </c>
+      <c r="E267" t="n">
+        <v>84.68000000000001</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>24</v>
+      </c>
+      <c r="B268" t="n">
+        <v>500</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.04624791629612446</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0.04194309654983745</v>
+      </c>
+      <c r="E268" t="n">
+        <v>84.94</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>25</v>
+      </c>
+      <c r="B269" t="n">
+        <v>520</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.04162554815411568</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.0418310185336763</v>
+      </c>
+      <c r="E269" t="n">
+        <v>84.93000000000001</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>26</v>
+      </c>
+      <c r="B270" t="n">
+        <v>540</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.0425685727968812</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.0416238675736318</v>
+      </c>
+      <c r="E270" t="n">
+        <v>84.95</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>27</v>
+      </c>
+      <c r="B271" t="n">
+        <v>560</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.04253636579960585</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.04140108490398355</v>
+      </c>
+      <c r="E271" t="n">
+        <v>84.94</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>28</v>
+      </c>
+      <c r="B272" t="n">
+        <v>580</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.04096629843115807</v>
+      </c>
+      <c r="D272" t="n">
+        <v>0.04106575508074016</v>
+      </c>
+      <c r="E272" t="n">
+        <v>84.91</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>29</v>
+      </c>
+      <c r="B273" t="n">
+        <v>600</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.04352498427033424</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.0410138452484919</v>
+      </c>
+      <c r="E273" t="n">
+        <v>85.16</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>30</v>
+      </c>
+      <c r="B274" t="n">
+        <v>620</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.04309943504631519</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.04103598145732455</v>
+      </c>
+      <c r="E274" t="n">
+        <v>85.04000000000001</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>31</v>
+      </c>
+      <c r="B275" t="n">
+        <v>640</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.04069383628666401</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.04082537736672505</v>
+      </c>
+      <c r="E275" t="n">
+        <v>85.23</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>32</v>
+      </c>
+      <c r="B276" t="n">
+        <v>660</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.04035421181470156</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0.04073703503770053</v>
+      </c>
+      <c r="E276" t="n">
+        <v>84.63</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>33</v>
+      </c>
+      <c r="B277" t="n">
+        <v>680</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.03962545748800039</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.04055778430715488</v>
+      </c>
+      <c r="E277" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>34</v>
+      </c>
+      <c r="B278" t="n">
+        <v>700</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.03960093855857849</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0.04055247258893244</v>
+      </c>
+      <c r="E278" t="n">
+        <v>85.67</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>35</v>
+      </c>
+      <c r="B279" t="n">
+        <v>720</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.04393537063151598</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0.04039880313026677</v>
+      </c>
+      <c r="E279" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>36</v>
+      </c>
+      <c r="B280" t="n">
+        <v>740</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.04579601716250181</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0.04052668933276158</v>
+      </c>
+      <c r="E280" t="n">
+        <v>85.43000000000001</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>37</v>
+      </c>
+      <c r="B281" t="n">
+        <v>760</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.03932865709066391</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0.04042126203940553</v>
+      </c>
+      <c r="E281" t="n">
+        <v>84.81999999999999</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>38</v>
+      </c>
+      <c r="B282" t="n">
+        <v>780</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.03752951417118311</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0.04001013880037958</v>
+      </c>
+      <c r="E282" t="n">
+        <v>85.48</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>39</v>
+      </c>
+      <c r="B283" t="n">
+        <v>800</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.04185562767088413</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.04029547372109191</v>
+      </c>
+      <c r="E283" t="n">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>40</v>
+      </c>
+      <c r="B284" t="n">
+        <v>820</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.04087977297604084</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.04015015768017739</v>
+      </c>
+      <c r="E284" t="n">
+        <v>85.48</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>41</v>
+      </c>
+      <c r="B285" t="n">
+        <v>840</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.04107824899256229</v>
+      </c>
+      <c r="D285" t="n">
+        <v>0.0401224659720234</v>
+      </c>
+      <c r="E285" t="n">
+        <v>85.68000000000001</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>42</v>
+      </c>
+      <c r="B286" t="n">
+        <v>860</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.04160277359187603</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.04026985373703917</v>
+      </c>
+      <c r="E286" t="n">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>43</v>
+      </c>
+      <c r="B287" t="n">
+        <v>880</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.03987596556544304</v>
+      </c>
+      <c r="D287" t="n">
+        <v>0.04001645282338</v>
+      </c>
+      <c r="E287" t="n">
+        <v>85.86</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>44</v>
+      </c>
+      <c r="B288" t="n">
+        <v>900</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.04169695172458887</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.03978893520298657</v>
+      </c>
+      <c r="E288" t="n">
+        <v>85.31999999999999</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>45</v>
+      </c>
+      <c r="B289" t="n">
+        <v>920</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.03867812734097242</v>
+      </c>
+      <c r="D289" t="n">
+        <v>0.03981385380029678</v>
+      </c>
+      <c r="E289" t="n">
+        <v>85.72</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0</v>
+      </c>
+      <c r="B290" t="n">
+        <v>20</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.17125079408288</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.2439215066516475</v>
+      </c>
+      <c r="E290" t="n">
+        <v>36.67</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1</v>
+      </c>
+      <c r="B291" t="n">
+        <v>40</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.1054140534251928</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0.1093390411726988</v>
+      </c>
+      <c r="E291" t="n">
+        <v>69.31</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>2</v>
+      </c>
+      <c r="B292" t="n">
+        <v>60</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.08707163296639919</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0.08774537716511709</v>
+      </c>
+      <c r="E292" t="n">
+        <v>73.56</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>3</v>
+      </c>
+      <c r="B293" t="n">
+        <v>80</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.06985822878777981</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0.07632548447437347</v>
+      </c>
+      <c r="E293" t="n">
+        <v>73.15000000000001</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>4</v>
+      </c>
+      <c r="B294" t="n">
+        <v>100</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.06930601503700018</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0.06991447747987546</v>
+      </c>
+      <c r="E294" t="n">
+        <v>74.09999999999999</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>5</v>
+      </c>
+      <c r="B295" t="n">
+        <v>120</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.06333628576248884</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.06423923283056089</v>
+      </c>
+      <c r="E295" t="n">
+        <v>76.22</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>6</v>
+      </c>
+      <c r="B296" t="n">
+        <v>140</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.05819881055504084</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.0597817002540561</v>
+      </c>
+      <c r="E296" t="n">
+        <v>78.14</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>7</v>
+      </c>
+      <c r="B297" t="n">
+        <v>160</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.06123234145343304</v>
+      </c>
+      <c r="D297" t="n">
+        <v>0.05651838000223135</v>
+      </c>
+      <c r="E297" t="n">
+        <v>79.42</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>8</v>
+      </c>
+      <c r="B298" t="n">
+        <v>180</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.05883326753973961</v>
+      </c>
+      <c r="D298" t="n">
+        <v>0.05399201952727737</v>
+      </c>
+      <c r="E298" t="n">
+        <v>80.47</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9</v>
+      </c>
+      <c r="B299" t="n">
+        <v>200</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.05606922134757042</v>
+      </c>
+      <c r="D299" t="n">
+        <v>0.0523887312004141</v>
+      </c>
+      <c r="E299" t="n">
+        <v>81.29000000000001</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>10</v>
+      </c>
+      <c r="B300" t="n">
+        <v>220</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.05453061405569315</v>
+      </c>
+      <c r="D300" t="n">
+        <v>0.05111475011250775</v>
+      </c>
+      <c r="E300" t="n">
+        <v>81.28</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>11</v>
+      </c>
+      <c r="B301" t="n">
+        <v>240</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.0519068967550993</v>
+      </c>
+      <c r="D301" t="n">
+        <v>0.04956924310250647</v>
+      </c>
+      <c r="E301" t="n">
+        <v>82.23</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>12</v>
+      </c>
+      <c r="B302" t="n">
+        <v>260</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.04825397301465273</v>
+      </c>
+      <c r="D302" t="n">
+        <v>0.04862308207970516</v>
+      </c>
+      <c r="E302" t="n">
+        <v>82.95</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>13</v>
+      </c>
+      <c r="B303" t="n">
+        <v>280</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.04915004130452871</v>
+      </c>
+      <c r="D303" t="n">
+        <v>0.04744068583010868</v>
+      </c>
+      <c r="E303" t="n">
+        <v>83.36</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>14</v>
+      </c>
+      <c r="B304" t="n">
+        <v>300</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.04724855814129114</v>
+      </c>
+      <c r="D304" t="n">
+        <v>0.04660211342155553</v>
+      </c>
+      <c r="E304" t="n">
+        <v>82.88</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>15</v>
+      </c>
+      <c r="B305" t="n">
+        <v>320</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.04630610160529613</v>
+      </c>
+      <c r="D305" t="n">
+        <v>0.0457387255730143</v>
+      </c>
+      <c r="E305" t="n">
+        <v>83.81</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>16</v>
+      </c>
+      <c r="B306" t="n">
+        <v>340</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.04568448197096586</v>
+      </c>
+      <c r="D306" t="n">
+        <v>0.04537066981006579</v>
+      </c>
+      <c r="E306" t="n">
+        <v>83.53</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>17</v>
+      </c>
+      <c r="B307" t="n">
+        <v>360</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.04559908900409937</v>
+      </c>
+      <c r="D307" t="n">
+        <v>0.04444868613485318</v>
+      </c>
+      <c r="E307" t="n">
+        <v>83.98999999999999</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>18</v>
+      </c>
+      <c r="B308" t="n">
+        <v>380</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.04373080097138882</v>
+      </c>
+      <c r="D308" t="n">
+        <v>0.04418164425215144</v>
+      </c>
+      <c r="E308" t="n">
+        <v>83.73999999999999</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>19</v>
+      </c>
+      <c r="B309" t="n">
+        <v>400</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.0458845142275095</v>
+      </c>
+      <c r="D309" t="n">
+        <v>0.04363800431038164</v>
+      </c>
+      <c r="E309" t="n">
+        <v>84.64</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>20</v>
+      </c>
+      <c r="B310" t="n">
+        <v>420</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.04334449581801891</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0.04301482517343418</v>
+      </c>
+      <c r="E310" t="n">
+        <v>84.77</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>21</v>
+      </c>
+      <c r="B311" t="n">
+        <v>440</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.04345390852540731</v>
+      </c>
+      <c r="D311" t="n">
+        <v>0.04258955488349222</v>
+      </c>
+      <c r="E311" t="n">
+        <v>84.56999999999999</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>22</v>
+      </c>
+      <c r="B312" t="n">
+        <v>460</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.0425998866558075</v>
+      </c>
+      <c r="D312" t="n">
+        <v>0.04220913158385617</v>
+      </c>
+      <c r="E312" t="n">
+        <v>85.05</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>23</v>
+      </c>
+      <c r="B313" t="n">
+        <v>480</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.04422830045223236</v>
+      </c>
+      <c r="D313" t="n">
+        <v>0.0422290170885575</v>
+      </c>
+      <c r="E313" t="n">
+        <v>85.29000000000001</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>24</v>
+      </c>
+      <c r="B314" t="n">
+        <v>500</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.04327586386352777</v>
+      </c>
+      <c r="D314" t="n">
+        <v>0.04194107848652609</v>
+      </c>
+      <c r="E314" t="n">
+        <v>84.48999999999999</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>25</v>
+      </c>
+      <c r="B315" t="n">
+        <v>520</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.04012786038219929</v>
+      </c>
+      <c r="D315" t="n">
+        <v>0.04178769900730461</v>
+      </c>
+      <c r="E315" t="n">
+        <v>85.09999999999999</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>26</v>
+      </c>
+      <c r="B316" t="n">
+        <v>540</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.04187466762959957</v>
+      </c>
+      <c r="D316" t="n">
+        <v>0.04147432227233413</v>
+      </c>
+      <c r="E316" t="n">
+        <v>85.36</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>27</v>
+      </c>
+      <c r="B317" t="n">
+        <v>560</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.04455981310456991</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.04148883951507557</v>
+      </c>
+      <c r="E317" t="n">
+        <v>85.27</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>28</v>
+      </c>
+      <c r="B318" t="n">
+        <v>580</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.03833323623985052</v>
+      </c>
+      <c r="D318" t="n">
+        <v>0.04106509089944469</v>
+      </c>
+      <c r="E318" t="n">
+        <v>84.67</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>29</v>
+      </c>
+      <c r="B319" t="n">
+        <v>600</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.04349237587302923</v>
+      </c>
+      <c r="D319" t="n">
+        <v>0.04097464151538101</v>
+      </c>
+      <c r="E319" t="n">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>30</v>
+      </c>
+      <c r="B320" t="n">
+        <v>620</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.04196149948984385</v>
+      </c>
+      <c r="D320" t="n">
+        <v>0.04077777204809675</v>
+      </c>
+      <c r="E320" t="n">
+        <v>85.88</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>31</v>
+      </c>
+      <c r="B321" t="n">
+        <v>640</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.04682103544473648</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.04087773838620277</v>
+      </c>
+      <c r="E321" t="n">
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>32</v>
+      </c>
+      <c r="B322" t="n">
+        <v>660</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.04181835241615772</v>
+      </c>
+      <c r="D322" t="n">
+        <v>0.04067203917416038</v>
+      </c>
+      <c r="E322" t="n">
+        <v>85.29000000000001</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>33</v>
+      </c>
+      <c r="B323" t="n">
+        <v>680</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.03905518632382154</v>
+      </c>
+      <c r="D323" t="n">
+        <v>0.04048637999518282</v>
+      </c>
+      <c r="E323" t="n">
+        <v>85.34</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>34</v>
+      </c>
+      <c r="B324" t="n">
+        <v>700</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.03858389612287283</v>
+      </c>
+      <c r="D324" t="n">
+        <v>0.04019936087547214</v>
+      </c>
+      <c r="E324" t="n">
+        <v>85.28</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>35</v>
+      </c>
+      <c r="B325" t="n">
+        <v>720</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.04202050995081663</v>
+      </c>
+      <c r="D325" t="n">
+        <v>0.04035459315273792</v>
+      </c>
+      <c r="E325" t="n">
+        <v>85.52</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>36</v>
+      </c>
+      <c r="B326" t="n">
+        <v>740</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.04177168477326632</v>
+      </c>
+      <c r="D326" t="n">
+        <v>0.0403572273482183</v>
+      </c>
+      <c r="E326" t="n">
+        <v>85.7</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>37</v>
+      </c>
+      <c r="B327" t="n">
+        <v>760</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.03939757589250803</v>
+      </c>
+      <c r="D327" t="n">
+        <v>0.04023858869246617</v>
+      </c>
+      <c r="E327" t="n">
+        <v>85.23999999999999</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>38</v>
+      </c>
+      <c r="B328" t="n">
+        <v>780</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.03730632178485394</v>
+      </c>
+      <c r="D328" t="n">
+        <v>0.04009762850062103</v>
+      </c>
+      <c r="E328" t="n">
+        <v>85.45</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>39</v>
+      </c>
+      <c r="B329" t="n">
+        <v>800</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.03805762156844139</v>
+      </c>
+      <c r="D329" t="n">
+        <v>0.04017574283157944</v>
+      </c>
+      <c r="E329" t="n">
+        <v>85.59999999999999</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>40</v>
+      </c>
+      <c r="B330" t="n">
+        <v>820</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.03775907307863235</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.04007256187640938</v>
+      </c>
+      <c r="E330" t="n">
+        <v>85.01000000000001</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>41</v>
+      </c>
+      <c r="B331" t="n">
+        <v>840</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.03884198982268572</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.03990531655823349</v>
+      </c>
+      <c r="E331" t="n">
+        <v>85.48999999999999</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>42</v>
+      </c>
+      <c r="B332" t="n">
+        <v>860</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.03848027158528566</v>
+      </c>
+      <c r="D332" t="n">
+        <v>0.03991338788608836</v>
+      </c>
+      <c r="E332" t="n">
+        <v>86.02</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>43</v>
+      </c>
+      <c r="B333" t="n">
+        <v>880</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.03731135651469231</v>
+      </c>
+      <c r="D333" t="n">
+        <v>0.0399744652306578</v>
+      </c>
+      <c r="E333" t="n">
+        <v>85.16</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>44</v>
+      </c>
+      <c r="B334" t="n">
+        <v>900</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.04175618197768927</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.03990234278000084</v>
+      </c>
+      <c r="E334" t="n">
+        <v>85.34999999999999</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>45</v>
+      </c>
+      <c r="B335" t="n">
+        <v>920</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.0413597859442234</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.03984508922050713</v>
+      </c>
+      <c r="E335" t="n">
+        <v>85.15000000000001</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>46</v>
+      </c>
+      <c r="B336" t="n">
+        <v>940</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.0402584346011281</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.03999924953955754</v>
+      </c>
+      <c r="E336" t="n">
+        <v>85.56999999999999</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>47</v>
+      </c>
+      <c r="B337" t="n">
+        <v>960</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.04091858398169279</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.03965511291649691</v>
+      </c>
+      <c r="E337" t="n">
+        <v>85.77</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>48</v>
+      </c>
+      <c r="B338" t="n">
+        <v>980</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.03869528044015169</v>
+      </c>
+      <c r="D338" t="n">
+        <v>0.03961111208910396</v>
+      </c>
+      <c r="E338" t="n">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>49</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.04293830320239067</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0.03963986997771415</v>
+      </c>
+      <c r="E339" t="n">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>0</v>
+      </c>
+      <c r="B340" t="n">
+        <v>20</v>
+      </c>
+      <c r="C340" t="n">
+        <v>2.213579177856445</v>
+      </c>
+      <c r="D340" t="n">
+        <v>2.125066207472686</v>
+      </c>
+      <c r="E340" t="n">
+        <v>47.38</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1</v>
+      </c>
+      <c r="B341" t="n">
+        <v>40</v>
+      </c>
+      <c r="C341" t="n">
+        <v>2.073902368545532</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1.960773588745457</v>
+      </c>
+      <c r="E341" t="n">
+        <v>71.94</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>2</v>
+      </c>
+      <c r="B342" t="n">
+        <v>60</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1.935511767864227</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.849332815522601</v>
+      </c>
+      <c r="E342" t="n">
+        <v>78.69</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>3</v>
+      </c>
+      <c r="B343" t="n">
+        <v>80</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1.825970590114594</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1.779910659334462</v>
+      </c>
+      <c r="E343" t="n">
+        <v>81.13</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>4</v>
+      </c>
+      <c r="B344" t="n">
+        <v>100</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1.785116493701935</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1.73774291679358</v>
+      </c>
+      <c r="E344" t="n">
+        <v>82.34</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>5</v>
+      </c>
+      <c r="B345" t="n">
+        <v>120</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1.73862636089325</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1.709830444329863</v>
+      </c>
+      <c r="E345" t="n">
+        <v>83.44</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>6</v>
+      </c>
+      <c r="B346" t="n">
+        <v>140</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1.720702439546585</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1.69063476240559</v>
+      </c>
+      <c r="E346" t="n">
+        <v>84.12</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>7</v>
+      </c>
+      <c r="B347" t="n">
+        <v>160</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1.693441897630692</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1.675845888769551</v>
+      </c>
+      <c r="E347" t="n">
+        <v>84.39</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>8</v>
+      </c>
+      <c r="B348" t="n">
+        <v>180</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1.683074712753296</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1.664926367200864</v>
+      </c>
+      <c r="E348" t="n">
+        <v>84.67</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>9</v>
+      </c>
+      <c r="B349" t="n">
+        <v>200</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1.66776117682457</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.65648812321341</v>
+      </c>
+      <c r="E349" t="n">
+        <v>84.98999999999999</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>10</v>
+      </c>
+      <c r="B350" t="n">
+        <v>220</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.646122306585312</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.649584881059683</v>
+      </c>
+      <c r="E350" t="n">
+        <v>85.45999999999999</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>11</v>
+      </c>
+      <c r="B351" t="n">
+        <v>240</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1.684053748846054</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.643747791363176</v>
+      </c>
+      <c r="E351" t="n">
+        <v>85.65000000000001</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>12</v>
+      </c>
+      <c r="B352" t="n">
+        <v>260</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1.640657633543015</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.638423634182875</v>
+      </c>
+      <c r="E352" t="n">
+        <v>86.04000000000001</v>
       </c>
     </row>
   </sheetData>
